--- a/medicine/Enfance/Bernadette_Byk/Bernadette_Byk.xlsx
+++ b/medicine/Enfance/Bernadette_Byk/Bernadette_Byk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernadette Byk, née le 17 juillet 1935, à Chauny, (Aisne), à l'âge de 7 ans, fait partie de la Maison d'Izieu, du 18 mai au 17 juin 1943, avant la Rafle des Enfants d'Izieu du 6 avril 1944. Elle survit à la guerre.
 </t>
@@ -511,17 +523,124 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernadette Byk est née le 17 juillet 1935, à Chauny, (Aisne).
-Maison d'Enfants d'Izieu
-Elle arrivée à Izieu avec d’autres enfants, depuis la maison Campestre près de Lodève dans l’Hérault[1].
-Âgée de 7 ans, Bernadette Byk fait partie de la Maison d'Izieu, du 18 mai au 17 juin 1943[2], avant la Rafle des Enfants d'Izieu du 6 avril 1944.
-Après Izieu
-Elle est cachée dans le sud de la France, à l’initiative du Réseau Marcel, créé par Moussa Abadi et Odette Rosenstock. Elle est placée à Nice puis à Grasse où elle reste jusqu’à ce que ses parents la retrouvent, une fois la guerre finie[1].
-Retour à Izieu, le 11 octobre 2015
-Bernadette Byk retourne à Izieu, le dimanche 11 octobre 2015. C'est sa première visite à la Maison d'Izieu en soixante-douze ans. Elle raconte:
-« [D’Izieu] je n’ai aucun souvenir, à part l’accent des femmes qui s’occupaient de nous car c’était le même que celui de mes parents à la maison, je ne me souviens de rien. Je me souviens des choses d’avant la guerre, d’après la guerre, mais d’Izieu non. »[1],[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bernadette_Byk</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernadette_Byk</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Maison d'Enfants d'Izieu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle arrivée à Izieu avec d’autres enfants, depuis la maison Campestre près de Lodève dans l’Hérault.
+Âgée de 7 ans, Bernadette Byk fait partie de la Maison d'Izieu, du 18 mai au 17 juin 1943, avant la Rafle des Enfants d'Izieu du 6 avril 1944.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bernadette_Byk</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernadette_Byk</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Après Izieu</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est cachée dans le sud de la France, à l’initiative du Réseau Marcel, créé par Moussa Abadi et Odette Rosenstock. Elle est placée à Nice puis à Grasse où elle reste jusqu’à ce que ses parents la retrouvent, une fois la guerre finie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bernadette_Byk</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernadette_Byk</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Retour à Izieu, le 11 octobre 2015</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernadette Byk retourne à Izieu, le dimanche 11 octobre 2015. C'est sa première visite à la Maison d'Izieu en soixante-douze ans. Elle raconte:
+« [D’Izieu] je n’ai aucun souvenir, à part l’accent des femmes qui s’occupaient de nous car c’était le même que celui de mes parents à la maison, je ne me souviens de rien. Je me souviens des choses d’avant la guerre, d’après la guerre, mais d’Izieu non. »,.
 </t>
         </is>
       </c>
